--- a/Лаба 3.5.3/Лист Microsoft Excel.xlsx
+++ b/Лаба 3.5.3/Лист Microsoft Excel.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
         <v>35</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J3:J8" si="3">500*10^3*I4*10^(-9)*LN((114-73.6)/(114-95.2))*10^(3)</f>
+        <f t="shared" ref="J4:J8" si="3">500*10^3*I4*10^(-9)*LN((114-73.6)/(114-95.2))*10^(3)</f>
         <v>13.387026014796021</v>
       </c>
     </row>
